--- a/prog/data_processing/result/classify_abby/1.xlsx
+++ b/prog/data_processing/result/classify_abby/1.xlsx
@@ -25,7 +25,7 @@
     <t>Empty</t>
   </si>
   <si>
-    <t>Empty part</t>
+    <t>Empty part%</t>
   </si>
   <si>
     <t>AUC</t>
@@ -682,7 +682,7 @@
         <v>195030</v>
       </c>
       <c r="U3">
-        <v>0.8246616236146759</v>
+        <v>82.46616236146758</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -747,7 +747,7 @@
         <v>234900</v>
       </c>
       <c r="U4">
-        <v>0.993247271635581</v>
+        <v>99.32472716355809</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -812,7 +812,7 @@
         <v>236396</v>
       </c>
       <c r="U5">
-        <v>0.9995729332718808</v>
+        <v>99.95729332718808</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -877,7 +877,7 @@
         <v>108124</v>
       </c>
       <c r="U6">
-        <v>0.457189731793638</v>
+        <v>45.7189731793638</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -942,7 +942,7 @@
         <v>155538</v>
       </c>
       <c r="U7">
-        <v>0.6576743045366326</v>
+        <v>65.76743045366327</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1007,7 +1007,7 @@
         <v>227405</v>
       </c>
       <c r="U8">
-        <v>0.961555537702381</v>
+        <v>96.1555537702381</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1137,7 +1137,7 @@
         <v>70250</v>
       </c>
       <c r="U10">
-        <v>0.2970439371323949</v>
+        <v>29.70439371323949</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1332,7 +1332,7 @@
         <v>217748</v>
       </c>
       <c r="U13">
-        <v>0.9207220387573627</v>
+        <v>92.07220387573626</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1397,7 +1397,7 @@
         <v>221099</v>
       </c>
       <c r="U14">
-        <v>0.9348913516873364</v>
+        <v>93.48913516873364</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1462,7 +1462,7 @@
         <v>63143</v>
       </c>
       <c r="U15">
-        <v>0.266992815976524</v>
+        <v>26.6992815976524</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1722,7 +1722,7 @@
         <v>80329</v>
       </c>
       <c r="U19">
-        <v>0.339661813891931</v>
+        <v>33.9661813891931</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1787,7 +1787,7 @@
         <v>68942</v>
       </c>
       <c r="U20">
-        <v>0.2915132115840793</v>
+        <v>29.15132115840793</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1917,7 +1917,7 @@
         <v>134681</v>
       </c>
       <c r="U22">
-        <v>0.5694829109883001</v>
+        <v>56.94829109883</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1982,7 +1982,7 @@
         <v>173674</v>
       </c>
       <c r="U23">
-        <v>0.7343602667264278</v>
+        <v>73.43602667264278</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2047,7 +2047,7 @@
         <v>145639</v>
       </c>
       <c r="U24">
-        <v>0.6158175367975069</v>
+        <v>61.5817536797507</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2112,7 +2112,7 @@
         <v>132363</v>
       </c>
       <c r="U25">
-        <v>0.5596815181587927</v>
+        <v>55.96815181587927</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2177,7 +2177,7 @@
         <v>168714</v>
       </c>
       <c r="U26">
-        <v>0.7133874848306744</v>
+        <v>71.33874848306743</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2242,7 +2242,7 @@
         <v>173510</v>
       </c>
       <c r="U27">
-        <v>0.733666811841165</v>
+        <v>73.3666811841165</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2307,7 +2307,7 @@
         <v>135529</v>
       </c>
       <c r="U28">
-        <v>0.5730685801511224</v>
+        <v>57.30685801511224</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2372,7 +2372,7 @@
         <v>131648</v>
       </c>
       <c r="U29">
-        <v>0.5566582239943847</v>
+        <v>55.66582239943847</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2437,7 +2437,7 @@
         <v>136244</v>
       </c>
       <c r="U30">
-        <v>0.5760918743155304</v>
+        <v>57.60918743155305</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2502,7 +2502,7 @@
         <v>153215</v>
       </c>
       <c r="U31">
-        <v>0.6478517697898917</v>
+        <v>64.78517697898916</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2567,7 +2567,7 @@
         <v>20133</v>
       </c>
       <c r="U32">
-        <v>0.08513004393290401</v>
+        <v>8.513004393290402</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2632,7 +2632,7 @@
         <v>117790</v>
       </c>
       <c r="U33">
-        <v>0.4980612861896768</v>
+        <v>49.80612861896768</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2762,7 +2762,7 @@
         <v>89220</v>
       </c>
       <c r="U35">
-        <v>0.3772563711167584</v>
+        <v>37.72563711167584</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2892,7 +2892,7 @@
         <v>194937</v>
       </c>
       <c r="U37">
-        <v>0.8242683839541305</v>
+        <v>82.42683839541304</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3087,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="U40">
-        <v>4.228383446724483E-06</v>
+        <v>0.0004228383446724483</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3152,7 +3152,7 @@
         <v>12330</v>
       </c>
       <c r="U41">
-        <v>0.05213596789811287</v>
+        <v>5.213596789811287</v>
       </c>
     </row>
   </sheetData>
